--- a/www/estadisticas_anguil/Sintesis_DIC2022.xlsx
+++ b/www/estadisticas_anguil/Sintesis_DIC2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\olguinpaez.rosario\Documents\SINTESIS DE DATOS 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sintesis Estadistica EEA Anguil\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -420,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -432,19 +432,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -460,29 +448,35 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -765,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,27 +769,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="8">
         <v>44896</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -813,13 +807,13 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>25.3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>28</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>19.100000000000001</v>
       </c>
     </row>
@@ -827,13 +821,13 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>23.1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>26.6</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>18.100000000000001</v>
       </c>
     </row>
@@ -841,27 +835,27 @@
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>22.8</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>16.399999999999999</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>28.8</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="10">
         <v>23.7</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="10">
         <v>28.8</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="18">
         <v>16.399999999999999</v>
       </c>
     </row>
@@ -872,14 +866,14 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="8">
         <v>44896</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -897,13 +891,13 @@
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>35.1</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>38.6</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>27.4</v>
       </c>
     </row>
@@ -911,13 +905,13 @@
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>33.1</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>40</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>27.7</v>
       </c>
     </row>
@@ -925,27 +919,27 @@
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>32</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>37.799999999999997</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>21.5</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="10">
         <v>33.299999999999997</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="10">
         <v>40</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="18">
         <v>21.5</v>
       </c>
     </row>
@@ -956,14 +950,14 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="8">
         <v>44896</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -981,13 +975,13 @@
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>15.5</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>22</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>10.5</v>
       </c>
     </row>
@@ -995,13 +989,13 @@
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>13.1</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>16.899999999999999</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>8.5</v>
       </c>
     </row>
@@ -1009,27 +1003,27 @@
       <c r="A20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>13.6</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>20.399999999999999</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="10">
         <v>14</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="18">
         <v>22</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="19">
         <v>5</v>
       </c>
     </row>
@@ -1046,14 +1040,14 @@
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24" s="8">
         <v>44896</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
@@ -1071,13 +1065,13 @@
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>13.5</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>20</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>7.6</v>
       </c>
     </row>
@@ -1085,13 +1079,13 @@
       <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>10</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>13</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>5.8</v>
       </c>
     </row>
@@ -1099,13 +1093,13 @@
       <c r="A28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>10.8</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>18.8</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>2</v>
       </c>
       <c r="H28" t="s">
@@ -1113,16 +1107,16 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="10">
         <v>11.4</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="10">
         <v>20</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="18">
         <v>2</v>
       </c>
     </row>
@@ -1139,14 +1133,14 @@
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
+      <c r="A32" s="8">
         <v>44896</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -1164,13 +1158,13 @@
       <c r="A34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>18.8</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>20.399999999999999</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>16.8</v>
       </c>
     </row>
@@ -1178,13 +1172,13 @@
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>28.9</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>30.7</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>26</v>
       </c>
     </row>
@@ -1192,39 +1186,39 @@
       <c r="A36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>29.5</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>31.7</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>26.3</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="10">
         <v>27.1</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="10">
         <v>31.7</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="18">
         <v>16.8</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
+      <c r="A39" s="8">
         <v>44896</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
@@ -1242,13 +1236,13 @@
       <c r="A41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>3.2</v>
       </c>
     </row>
@@ -1256,13 +1250,13 @@
       <c r="A42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>8.5</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>12.5</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>5</v>
       </c>
     </row>
@@ -1270,39 +1264,39 @@
       <c r="A43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>14.3</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="10">
         <v>7.5</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="10">
         <v>14.3</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="18">
         <v>3.2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="12">
+      <c r="A46" s="8">
         <v>44896</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1320,13 +1314,13 @@
       <c r="A48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>0.6</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>0.6</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1334,13 +1328,13 @@
       <c r="A49" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>0</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="2">
         <v>0</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1348,39 +1342,39 @@
       <c r="A50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="4">
         <v>7</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4">
         <v>4</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="10">
         <v>7.6</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="10">
         <v>4</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="12">
+      <c r="A53" s="8">
         <v>44896</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
@@ -1398,13 +1392,13 @@
       <c r="A55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>36</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>50</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <v>27</v>
       </c>
     </row>
@@ -1412,13 +1406,13 @@
       <c r="A56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>37</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="2">
         <v>43</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="2">
         <v>21</v>
       </c>
     </row>
@@ -1426,39 +1420,39 @@
       <c r="A57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="4">
         <v>43</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4">
         <v>73</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="14">
+      <c r="B58" s="10">
         <v>39</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="10">
         <v>73</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="18">
         <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="12">
+      <c r="A60" s="8">
         <v>44896</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
@@ -1476,13 +1470,13 @@
       <c r="A62" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="2">
         <v>5.9</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="2">
         <v>3.2</v>
       </c>
     </row>
@@ -1490,13 +1484,13 @@
       <c r="A63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>6.3</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="2">
         <v>8.1</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="2">
         <v>3.6</v>
       </c>
     </row>
@@ -1504,39 +1498,39 @@
       <c r="A64" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="4">
         <v>6.6</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="4">
         <v>3.6</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="14">
+      <c r="B65" s="10">
         <v>6.3</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="10">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="18">
         <v>3.2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="12">
+      <c r="A67" s="8">
         <v>44896</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
@@ -1554,13 +1548,13 @@
       <c r="A69" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="2">
         <v>11.1</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="2">
         <v>12</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="2">
         <v>8.1</v>
       </c>
     </row>
@@ -1568,13 +1562,13 @@
       <c r="A70" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="2">
         <v>11.2</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="2">
         <v>12.8</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="2">
         <v>11.4</v>
       </c>
     </row>
@@ -1582,72 +1576,72 @@
       <c r="A71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="4">
         <v>11.5</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="4">
         <v>12.8</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="4">
         <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="14">
+      <c r="B72" s="10">
         <v>11.4</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="10">
         <v>12.8</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="18">
         <v>8.1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
       <c r="D73" s="3"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="23"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="17"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B75" s="27">
+      <c r="B75" s="20">
         <v>0</v>
       </c>
-      <c r="C75" s="28"/>
-      <c r="D75" s="29"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="22"/>
     </row>
     <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="24">
+      <c r="B76" s="23">
         <v>0</v>
       </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="26"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="25"/>
     </row>
     <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="18"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="14"/>
     </row>
     <row r="80" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80"/>
@@ -1707,5 +1701,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <picture r:id="rId2"/>
 </worksheet>
 </file>